--- a/classification/droptc/sentence/modern-bert/freeze/43782163/prediction.xlsx
+++ b/classification/droptc/sentence/modern-bert/freeze/43782163/prediction.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5582281351089478</v>
+        <v>0.3453262746334076</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.741070032119751</v>
+        <v>0.9996323585510254</v>
       </c>
     </row>
     <row r="4">
@@ -539,14 +539,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.59214186668396</v>
+        <v>0.8893474340438843</v>
       </c>
     </row>
     <row r="5">
@@ -562,7 +562,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -571,10 +571,10 @@
         </is>
       </c>
       <c r="E5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7899860143661499</v>
+        <v>0.7067690491676331</v>
       </c>
     </row>
     <row r="6">
@@ -590,7 +590,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -599,10 +599,10 @@
         </is>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6540126204490662</v>
+        <v>0.9799473285675049</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6546579599380493</v>
+        <v>0.7995281219482422</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9166308641433716</v>
+        <v>0.6819284558296204</v>
       </c>
     </row>
     <row r="9">
@@ -674,7 +674,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -683,10 +683,10 @@
         </is>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5079092383384705</v>
+        <v>0.8656960725784302</v>
       </c>
     </row>
     <row r="10">
@@ -702,7 +702,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -711,10 +711,10 @@
         </is>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3694935142993927</v>
+        <v>0.6819284558296204</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5870352387428284</v>
+        <v>0.7632884979248047</v>
       </c>
     </row>
     <row r="12">
@@ -758,7 +758,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -767,10 +767,10 @@
         </is>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5342712998390198</v>
+        <v>0.801275372505188</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8271492123603821</v>
+        <v>0.8321196436882019</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9166308641433716</v>
+        <v>0.8031166195869446</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6592944264411926</v>
+        <v>0.9372418522834778</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8932443857192993</v>
+        <v>0.8965181112289429</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8518145084381104</v>
+        <v>0.7638823986053467</v>
       </c>
     </row>
     <row r="18">
@@ -926,7 +926,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6486243605613708</v>
+        <v>0.7041131258010864</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6188049912452698</v>
+        <v>0.9855020046234131</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6700388193130493</v>
+        <v>0.8609275817871094</v>
       </c>
     </row>
     <row r="21">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7742608785629272</v>
+        <v>0.9969972372055054</v>
       </c>
     </row>
     <row r="22">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1047,10 +1047,10 @@
         </is>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4226721823215485</v>
+        <v>0.7802833914756775</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.657882034778595</v>
+        <v>0.9867340326309204</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.61848384141922</v>
+        <v>0.914858877658844</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6727291941642761</v>
+        <v>0.3940434455871582</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4622471034526825</v>
+        <v>0.3765824139118195</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.5958448648452759</v>
+        <v>0.9690499305725098</v>
       </c>
     </row>
     <row r="28">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1215,10 +1215,10 @@
         </is>
       </c>
       <c r="E28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.555054247379303</v>
+        <v>0.9996323585510254</v>
       </c>
     </row>
     <row r="29">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="E29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6047898530960083</v>
+        <v>0.6623562574386597</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.6279339790344238</v>
+        <v>0.9166220426559448</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.80817049741745</v>
+        <v>0.8842995762825012</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.6807013154029846</v>
+        <v>0.873975396156311</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7013652324676514</v>
+        <v>0.7106953859329224</v>
       </c>
     </row>
     <row r="34">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E34" t="b">
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.4963641762733459</v>
+        <v>0.9190196394920349</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.8022611737251282</v>
+        <v>0.962821364402771</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.5956647992134094</v>
+        <v>0.9481549263000488</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.5665360689163208</v>
+        <v>0.9651220440864563</v>
       </c>
     </row>
     <row r="38">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1495,10 +1495,10 @@
         </is>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.6351250410079956</v>
+        <v>0.9538908004760742</v>
       </c>
     </row>
     <row r="39">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.7421876192092896</v>
+        <v>0.9744039177894592</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E40" t="b">
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.6774333715438843</v>
+        <v>0.2892669141292572</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.7916499376296997</v>
+        <v>0.9942956566810608</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.6212847232818604</v>
+        <v>0.4859147667884827</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4007086157798767</v>
+        <v>0.6497732400894165</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.7493986487388611</v>
+        <v>0.8735200762748718</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8143279552459717</v>
+        <v>0.8771181702613831</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.3812583088874817</v>
+        <v>0.9004461169242859</v>
       </c>
     </row>
     <row r="47">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.4091578722000122</v>
+        <v>0.5088687539100647</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.4152191579341888</v>
+        <v>0.8425507545471191</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.6268315315246582</v>
+        <v>0.9990200996398926</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9166308641433716</v>
+        <v>0.907048761844635</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.7488192319869995</v>
+        <v>0.6301565766334534</v>
       </c>
     </row>
     <row r="52">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="E52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.289527028799057</v>
+        <v>0.9203694462776184</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.3261349499225616</v>
+        <v>0.907048761844635</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2839874625205994</v>
+        <v>0.7156041860580444</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.7384265661239624</v>
+        <v>0.9959070682525635</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.6762282252311707</v>
+        <v>0.9972485899925232</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7289475798606873</v>
+        <v>0.9980778694152832</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.5951484441757202</v>
+        <v>0.821519136428833</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.7419188618659973</v>
+        <v>0.9847379922866821</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.8066129684448242</v>
+        <v>0.8673800230026245</v>
       </c>
     </row>
     <row r="61">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2139,10 +2139,10 @@
         </is>
       </c>
       <c r="E61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.336832582950592</v>
+        <v>0.9581766128540039</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6025615930557251</v>
+        <v>0.7762365937232971</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.8312076926231384</v>
+        <v>0.8568254113197327</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.8216948509216309</v>
+        <v>0.7091385126113892</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.6193426251411438</v>
+        <v>0.9041226506233215</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.778328537940979</v>
+        <v>0.9041226506233215</v>
       </c>
     </row>
     <row r="67">
@@ -2298,19 +2298,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E67" t="b">
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.8636289834976196</v>
+        <v>0.7654889822006226</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.7564487457275391</v>
+        <v>0.9041226506233215</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2532747983932495</v>
+        <v>0.6755483150482178</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.8619239926338196</v>
+        <v>0.9104970693588257</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.6510008573532104</v>
+        <v>0.5978720784187317</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.6385931372642517</v>
+        <v>0.9863722920417786</v>
       </c>
     </row>
     <row r="73">
@@ -2471,14 +2471,14 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.4035650789737701</v>
+        <v>0.8390055298805237</v>
       </c>
     </row>
     <row r="74">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2503,10 +2503,10 @@
         </is>
       </c>
       <c r="E74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.6092362999916077</v>
+        <v>0.6349796056747437</v>
       </c>
     </row>
     <row r="75">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2531,10 +2531,10 @@
         </is>
       </c>
       <c r="E75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.5561016201972961</v>
+        <v>0.5591367483139038</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9336898922920227</v>
+        <v>0.8390055298805237</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.6187475919723511</v>
+        <v>0.6025673747062683</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.7327769994735718</v>
+        <v>0.8390055298805237</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.5464692115783691</v>
+        <v>0.9948568344116211</v>
       </c>
     </row>
     <row r="80">
@@ -2662,19 +2662,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.8428440093994141</v>
+        <v>0.392284631729126</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.5863946080207825</v>
+        <v>0.4396014213562012</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.7560716867446899</v>
+        <v>0.5955281853675842</v>
       </c>
     </row>
     <row r="83">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="E83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.627755880355835</v>
+        <v>0.8620645403862</v>
       </c>
     </row>
     <row r="84">
@@ -2774,7 +2774,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2783,10 +2783,10 @@
         </is>
       </c>
       <c r="E84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.4742865264415741</v>
+        <v>0.8620645403862</v>
       </c>
     </row>
     <row r="85">
@@ -2802,19 +2802,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E85" t="b">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.4152191579341888</v>
+        <v>0.9867823123931885</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.5665360689163208</v>
+        <v>0.8673514127731323</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9166308641433716</v>
+        <v>0.9205977320671082</v>
       </c>
     </row>
     <row r="88">
@@ -2891,14 +2891,14 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.3431697189807892</v>
+        <v>0.7928521633148193</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.7846773862838745</v>
+        <v>0.755601704120636</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.5444616079330444</v>
+        <v>0.9790646433830261</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.3185846209526062</v>
+        <v>0.9771806001663208</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9235689640045166</v>
+        <v>0.9769153594970703</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.7357385754585266</v>
+        <v>0.9838862419128418</v>
       </c>
     </row>
     <row r="94">
@@ -3054,7 +3054,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3063,10 +3063,10 @@
         </is>
       </c>
       <c r="E94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.349624902009964</v>
+        <v>0.9831988215446472</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.6304967403411865</v>
+        <v>0.9780965447425842</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.6209154725074768</v>
+        <v>0.9785580635070801</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E97" t="b">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3264295160770416</v>
+        <v>0.3970922529697418</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.7165937423706055</v>
+        <v>0.9831931591033936</v>
       </c>
     </row>
     <row r="99">
@@ -3194,19 +3194,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E99" t="b">
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3170589804649353</v>
+        <v>0.8989392518997192</v>
       </c>
     </row>
     <row r="100">
@@ -3222,7 +3222,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3231,10 +3231,10 @@
         </is>
       </c>
       <c r="E100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.564238965511322</v>
+        <v>0.7026156187057495</v>
       </c>
     </row>
     <row r="101">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="E101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.7684759497642517</v>
+        <v>0.9655846357345581</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.7608434557914734</v>
+        <v>0.4693128168582916</v>
       </c>
     </row>
     <row r="103">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="E103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9166308641433716</v>
+        <v>0.5682899951934814</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.6330596804618835</v>
+        <v>0.8510871529579163</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.2938207983970642</v>
+        <v>0.9487385749816895</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.5698503255844116</v>
+        <v>0.9509263038635254</v>
       </c>
     </row>
     <row r="107">
@@ -3418,19 +3418,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E107" t="b">
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.7407904863357544</v>
+        <v>0.4715735614299774</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.6298186779022217</v>
+        <v>0.5342636704444885</v>
       </c>
     </row>
     <row r="109">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3483,10 +3483,10 @@
         </is>
       </c>
       <c r="E109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.3989278972148895</v>
+        <v>0.9337887167930603</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.6302721500396729</v>
+        <v>0.9996323585510254</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.5898956656455994</v>
+        <v>0.7780821323394775</v>
       </c>
     </row>
     <row r="112">
@@ -3563,14 +3563,14 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.5217344760894775</v>
+        <v>0.6875418424606323</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.7305065989494324</v>
+        <v>0.8488394021987915</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.5554642677307129</v>
+        <v>0.9800776243209839</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.5609005689620972</v>
+        <v>0.699183464050293</v>
       </c>
     </row>
     <row r="116">
@@ -3675,14 +3675,14 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>0.8342797160148621</v>
+        <v>0.348857969045639</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9164398312568665</v>
+        <v>0.835077702999115</v>
       </c>
     </row>
     <row r="118">
@@ -3731,14 +3731,14 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E118" t="b">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.489134281873703</v>
+        <v>0.4607782065868378</v>
       </c>
     </row>
     <row r="119">
@@ -3754,7 +3754,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3763,10 +3763,10 @@
         </is>
       </c>
       <c r="E119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.4234414398670197</v>
+        <v>0.642983078956604</v>
       </c>
     </row>
     <row r="120">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3791,10 +3791,10 @@
         </is>
       </c>
       <c r="E120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.289527028799057</v>
+        <v>0.9996323585510254</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.7753695249557495</v>
+        <v>0.7793805599212646</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.7049391865730286</v>
+        <v>0.951133131980896</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.3496978580951691</v>
+        <v>0.7793805599212646</v>
       </c>
     </row>
     <row r="124">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3903,10 +3903,10 @@
         </is>
       </c>
       <c r="E124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.633604884147644</v>
+        <v>0.951133131980896</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.503817081451416</v>
+        <v>0.7793805599212646</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.8665357828140259</v>
+        <v>0.9945340156555176</v>
       </c>
     </row>
     <row r="127">
@@ -3983,14 +3983,14 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.8043776154518127</v>
+        <v>0.3357632160186768</v>
       </c>
     </row>
     <row r="128">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4015,10 +4015,10 @@
         </is>
       </c>
       <c r="E128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.6819320917129517</v>
+        <v>0.9996323585510254</v>
       </c>
     </row>
     <row r="129">
@@ -4034,7 +4034,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4043,10 +4043,10 @@
         </is>
       </c>
       <c r="E129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.4083223640918732</v>
+        <v>0.6652925610542297</v>
       </c>
     </row>
     <row r="130">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4071,10 +4071,10 @@
         </is>
       </c>
       <c r="E130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.6029780507087708</v>
+        <v>0.4474219083786011</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.720134437084198</v>
+        <v>0.9890760183334351</v>
       </c>
     </row>
     <row r="132">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4127,10 +4127,10 @@
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.6688528656959534</v>
+        <v>0.6820223331451416</v>
       </c>
     </row>
     <row r="133">
@@ -4146,19 +4146,19 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E133" t="b">
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.3902138769626617</v>
+        <v>0.9567599296569824</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E134" t="b">
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.7116847038269043</v>
+        <v>0.5014547109603882</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.5899145007133484</v>
+        <v>0.9856711030006409</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.8688823580741882</v>
+        <v>0.8622239828109741</v>
       </c>
     </row>
     <row r="137">
@@ -4258,19 +4258,19 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E137" t="b">
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.4492534697055817</v>
+        <v>0.9801378846168518</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.6506384015083313</v>
+        <v>0.7774307131767273</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.8601530194282532</v>
+        <v>0.9849197864532471</v>
       </c>
     </row>
     <row r="140">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4351,10 +4351,10 @@
         </is>
       </c>
       <c r="E140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.5399049520492554</v>
+        <v>0.9931159615516663</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.8568163514137268</v>
+        <v>0.7207161784172058</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.7116460800170898</v>
+        <v>0.9996323585510254</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.5163632035255432</v>
+        <v>0.4084737598896027</v>
       </c>
     </row>
     <row r="144">
@@ -4454,7 +4454,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4463,10 +4463,10 @@
         </is>
       </c>
       <c r="E144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.6427385210990906</v>
+        <v>0.9676697254180908</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.349624902009964</v>
+        <v>0.4084737598896027</v>
       </c>
     </row>
     <row r="146">
@@ -4510,7 +4510,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4519,10 +4519,10 @@
         </is>
       </c>
       <c r="E146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.4303818941116333</v>
+        <v>0.9539431929588318</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.6951869130134583</v>
+        <v>0.6755483150482178</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.859892725944519</v>
+        <v>0.8777169585227966</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.8095666170120239</v>
+        <v>0.8328074812889099</v>
       </c>
     </row>
     <row r="150">
@@ -4622,7 +4622,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4631,10 +4631,10 @@
         </is>
       </c>
       <c r="E150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9166308641433716</v>
+        <v>0.3486222922801971</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.6292017698287964</v>
+        <v>0.9996323585510254</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E152" t="b">
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.4475351572036743</v>
+        <v>0.3529680669307709</v>
       </c>
     </row>
     <row r="153">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4715,10 +4715,10 @@
         </is>
       </c>
       <c r="E153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.336832582950592</v>
+        <v>0.9815720319747925</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.7672024965286255</v>
+        <v>0.716577410697937</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.6106931567192078</v>
+        <v>0.993994414806366</v>
       </c>
     </row>
     <row r="156">
@@ -4795,14 +4795,14 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.5187180638313293</v>
+        <v>0.5412189960479736</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.8121901750564575</v>
+        <v>0.9930210709571838</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.7291857004165649</v>
+        <v>0.7024899125099182</v>
       </c>
     </row>
     <row r="159">
@@ -4874,19 +4874,19 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E159" t="b">
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.2839874625205994</v>
+        <v>0.9968628883361816</v>
       </c>
     </row>
     <row r="160">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4911,10 +4911,10 @@
         </is>
       </c>
       <c r="E160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9166308641433716</v>
+        <v>0.6870717406272888</v>
       </c>
     </row>
     <row r="161">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4939,10 +4939,10 @@
         </is>
       </c>
       <c r="E161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.5214335322380066</v>
+        <v>0.9828784465789795</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.8688823580741882</v>
+        <v>0.9515200257301331</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.8444939255714417</v>
+        <v>0.8397156596183777</v>
       </c>
     </row>
     <row r="164">
@@ -5014,7 +5014,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -5023,10 +5023,10 @@
         </is>
       </c>
       <c r="E164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>0.7246704697608948</v>
+        <v>0.5288689732551575</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.6573017239570618</v>
+        <v>0.9917900562286377</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.5869373679161072</v>
+        <v>0.9054068326950073</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.4453620612621307</v>
+        <v>0.6679473519325256</v>
       </c>
     </row>
     <row r="168">
@@ -5131,14 +5131,14 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.6106931567192078</v>
+        <v>0.5151930451393127</v>
       </c>
     </row>
     <row r="169">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -5163,10 +5163,10 @@
         </is>
       </c>
       <c r="E169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.7915429472923279</v>
+        <v>0.9996323585510254</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.7123458981513977</v>
+        <v>0.6679473519325256</v>
       </c>
     </row>
     <row r="171">
@@ -5215,14 +5215,14 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.6829054951667786</v>
+        <v>0.799889087677002</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.7366784811019897</v>
+        <v>0.9996323585510254</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.7202531099319458</v>
+        <v>0.898196280002594</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.7329974174499512</v>
+        <v>0.925247848033905</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.3552181124687195</v>
+        <v>0.898196280002594</v>
       </c>
     </row>
     <row r="176">
@@ -5350,19 +5350,19 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E176" t="b">
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.4007086157798767</v>
+        <v>0.7960942387580872</v>
       </c>
     </row>
     <row r="177">
@@ -5378,7 +5378,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -5387,10 +5387,10 @@
         </is>
       </c>
       <c r="E177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.5217344760894775</v>
+        <v>0.925247848033905</v>
       </c>
     </row>
     <row r="178">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -5415,10 +5415,10 @@
         </is>
       </c>
       <c r="E178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.5694584250450134</v>
+        <v>0.8596436977386475</v>
       </c>
     </row>
     <row r="179">
@@ -5434,7 +5434,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -5443,10 +5443,10 @@
         </is>
       </c>
       <c r="E179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.5031524896621704</v>
+        <v>0.9825872778892517</v>
       </c>
     </row>
     <row r="180">
@@ -5462,7 +5462,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5471,10 +5471,10 @@
         </is>
       </c>
       <c r="E180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.5318189263343811</v>
+        <v>0.9337387681007385</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.809780478477478</v>
+        <v>0.5967021584510803</v>
       </c>
     </row>
     <row r="182">
@@ -5518,19 +5518,19 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.265744149684906</v>
+        <v>0.9637683629989624</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.5958448648452759</v>
+        <v>0.3795283734798431</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.4774057269096375</v>
+        <v>0.9988371729850769</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9166308641433716</v>
+        <v>0.9568116664886475</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.601110577583313</v>
+        <v>0.9560064673423767</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.6774316430091858</v>
+        <v>0.9662997126579285</v>
       </c>
     </row>
     <row r="188">
@@ -5686,19 +5686,19 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E188" t="b">
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.4007086157798767</v>
+        <v>0.968612015247345</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.6481512784957886</v>
+        <v>0.9582266211509705</v>
       </c>
     </row>
     <row r="190">
@@ -5742,7 +5742,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5751,10 +5751,10 @@
         </is>
       </c>
       <c r="E190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.2661055028438568</v>
+        <v>0.9657964110374451</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.7433409094810486</v>
+        <v>0.4026203453540802</v>
       </c>
     </row>
     <row r="192">
@@ -5798,19 +5798,19 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E192" t="b">
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.3959850072860718</v>
+        <v>0.9497398138046265</v>
       </c>
     </row>
     <row r="193">
@@ -5826,7 +5826,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -5835,10 +5835,10 @@
         </is>
       </c>
       <c r="E193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.3349786698818207</v>
+        <v>0.9560462832450867</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.6198394894599915</v>
+        <v>0.8577233552932739</v>
       </c>
     </row>
     <row r="195">
@@ -5882,7 +5882,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5891,10 +5891,10 @@
         </is>
       </c>
       <c r="E195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>0.7224146127700806</v>
+        <v>0.636089026927948</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.6427596211433411</v>
+        <v>0.9986408352851868</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.7711294293403625</v>
+        <v>0.80952388048172</v>
       </c>
     </row>
     <row r="198">
@@ -5966,19 +5966,19 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E198" t="b">
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.3481497466564178</v>
+        <v>0.5071544051170349</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E199" t="b">
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.3186489045619965</v>
+        <v>0.8986489176750183</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
+          <t>SoftwareFault</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
           <t>HardwareFault</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>Normal</t>
         </is>
       </c>
       <c r="E200" t="b">
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.4237363338470459</v>
+        <v>0.8583906292915344</v>
       </c>
     </row>
     <row r="201">
@@ -6050,7 +6050,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -6059,10 +6059,10 @@
         </is>
       </c>
       <c r="E201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.289527028799057</v>
+        <v>0.9980631470680237</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9180553555488586</v>
+        <v>0.9733281135559082</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.8403487205505371</v>
+        <v>0.7637349367141724</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.6148523092269897</v>
+        <v>0.3460428416728973</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9166308641433716</v>
+        <v>0.7183690071105957</v>
       </c>
     </row>
     <row r="206">
@@ -6190,19 +6190,19 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E206" t="b">
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.4152191579341888</v>
+        <v>0.995530903339386</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.5137458443641663</v>
+        <v>0.4147548675537109</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.61848384141922</v>
+        <v>0.9566397070884705</v>
       </c>
     </row>
     <row r="209">
@@ -6274,19 +6274,19 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E209" t="b">
         <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>0.2760706543922424</v>
+        <v>0.4701665341854095</v>
       </c>
     </row>
     <row r="210">
@@ -6302,7 +6302,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -6311,10 +6311,10 @@
         </is>
       </c>
       <c r="E210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.4685467481613159</v>
+        <v>0.9994969367980957</v>
       </c>
     </row>
   </sheetData>
